--- a/metrics/MAPE/average & upto/Angina.xlsx
+++ b/metrics/MAPE/average & upto/Angina.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9896045829459.965</v>
+        <v>10050920454152.9</v>
       </c>
       <c r="C3" t="n">
-        <v>9857044726831.693</v>
+        <v>10015889418069.6</v>
       </c>
       <c r="D3" t="n">
-        <v>10083076180120</v>
+        <v>10121295922965.2</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10945954046499.12</v>
+        <v>10576722455841.13</v>
       </c>
       <c r="C4" t="n">
-        <v>10730788244640.38</v>
+        <v>10613313836804.55</v>
       </c>
       <c r="D4" t="n">
-        <v>10575028972639.37</v>
+        <v>10717281175882.57</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>196942304083664.2</v>
+        <v>48627070606046.76</v>
       </c>
       <c r="C5" t="n">
-        <v>212905072418463.5</v>
+        <v>38413703571625.48</v>
       </c>
       <c r="D5" t="n">
-        <v>160125496238209.4</v>
+        <v>157997039818766.5</v>
       </c>
     </row>
   </sheetData>
